--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed4/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.744</v>
+        <v>16.717</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.67</v>
+        <v>-11.292</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.774</v>
+        <v>17.503</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.016</v>
+        <v>-13.361</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.5</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="15">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.584</v>
+        <v>-12.476</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.118</v>
+        <v>-11.62</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.362</v>
+        <v>16.472</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.21</v>
+        <v>-12.417</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -876,13 +876,13 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.53</v>
+        <v>-12.405</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.302</v>
+        <v>16.278</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.542</v>
+        <v>-13.533</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.45800000000001</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="28">
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.024</v>
+        <v>-12.434</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.794</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="30">
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.408</v>
+        <v>-12.377</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.438</v>
+        <v>-12.428</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.74</v>
+        <v>16.813</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.924</v>
+        <v>16.741</v>
       </c>
     </row>
     <row r="39">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.512</v>
+        <v>-13.006</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.594</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="48">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.214</v>
+        <v>16.867</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.728</v>
+        <v>16.955</v>
       </c>
     </row>
     <row r="53">
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.381</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.436</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="56">
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.426</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1607,13 +1607,13 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.834</v>
+        <v>-10.672</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.796</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.774</v>
+        <v>17.503</v>
       </c>
     </row>
     <row r="71">
@@ -1726,13 +1726,13 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-13.094</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.552</v>
+        <v>16.764</v>
       </c>
     </row>
     <row r="77">
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.5</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.4</v>
+        <v>16.206</v>
       </c>
     </row>
     <row r="82">
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.862</v>
+        <v>-12.323</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,13 +1845,13 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.338</v>
+        <v>-13.064</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.614</v>
+        <v>16.731</v>
       </c>
     </row>
     <row r="84">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.28</v>
+        <v>-11.587</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.236</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="95">
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.122</v>
+        <v>-12.208</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.774</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.924</v>
+        <v>16.745</v>
       </c>
     </row>
   </sheetData>
